--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.27937499999999</v>
+        <v>25.112885</v>
       </c>
       <c r="H2">
-        <v>96.83812499999999</v>
+        <v>75.33865499999999</v>
       </c>
       <c r="I2">
-        <v>0.4310459465194891</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="J2">
-        <v>0.4310459465194892</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N2">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O2">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P2">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q2">
-        <v>20.65677715916667</v>
+        <v>25.52808469866666</v>
       </c>
       <c r="R2">
-        <v>185.9109944325</v>
+        <v>229.752762288</v>
       </c>
       <c r="S2">
-        <v>0.04375368256064437</v>
+        <v>0.08354348797892826</v>
       </c>
       <c r="T2">
-        <v>0.04375368256064437</v>
+        <v>0.08354348797892826</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.27937499999999</v>
+        <v>25.112885</v>
       </c>
       <c r="H3">
-        <v>96.83812499999999</v>
+        <v>75.33865499999999</v>
       </c>
       <c r="I3">
-        <v>0.4310459465194891</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="J3">
-        <v>0.4310459465194892</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O3">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P3">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q3">
-        <v>77.19494173541666</v>
+        <v>60.05654367171667</v>
       </c>
       <c r="R3">
-        <v>694.75447561875</v>
+        <v>540.50889304545</v>
       </c>
       <c r="S3">
-        <v>0.1635087095123175</v>
+        <v>0.1965416988198922</v>
       </c>
       <c r="T3">
-        <v>0.1635087095123176</v>
+        <v>0.1965416988198922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.27937499999999</v>
+        <v>25.112885</v>
       </c>
       <c r="H4">
-        <v>96.83812499999999</v>
+        <v>75.33865499999999</v>
       </c>
       <c r="I4">
-        <v>0.4310459465194891</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="J4">
-        <v>0.4310459465194892</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N4">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O4">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P4">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q4">
-        <v>13.61220167770833</v>
+        <v>11.93638862742666</v>
       </c>
       <c r="R4">
-        <v>122.509815099375</v>
+        <v>107.42749764684</v>
       </c>
       <c r="S4">
-        <v>0.02883237528142788</v>
+        <v>0.03906315540622284</v>
       </c>
       <c r="T4">
-        <v>0.02883237528142788</v>
+        <v>0.03906315540622285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.27937499999999</v>
+        <v>25.112885</v>
       </c>
       <c r="H5">
-        <v>96.83812499999999</v>
+        <v>75.33865499999999</v>
       </c>
       <c r="I5">
-        <v>0.4310459465194891</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="J5">
-        <v>0.4310459465194892</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N5">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O5">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P5">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q5">
-        <v>54.70254411791666</v>
+        <v>8.939308109024999</v>
       </c>
       <c r="R5">
-        <v>492.32289706125</v>
+        <v>80.45377298122499</v>
       </c>
       <c r="S5">
-        <v>0.1158669492415401</v>
+        <v>0.02925487706428961</v>
       </c>
       <c r="T5">
-        <v>0.1158669492415401</v>
+        <v>0.02925487706428961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.27937499999999</v>
+        <v>25.112885</v>
       </c>
       <c r="H6">
-        <v>96.83812499999999</v>
+        <v>75.33865499999999</v>
       </c>
       <c r="I6">
-        <v>0.4310459465194891</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="J6">
-        <v>0.4310459465194892</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N6">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O6">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P6">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q6">
-        <v>27.35545761791667</v>
+        <v>30.52797639254999</v>
       </c>
       <c r="R6">
-        <v>246.19911856125</v>
+        <v>274.7517875329499</v>
       </c>
       <c r="S6">
-        <v>0.05794234016724862</v>
+        <v>0.09990618798382531</v>
       </c>
       <c r="T6">
-        <v>0.05794234016724863</v>
+        <v>0.09990618798382532</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.27937499999999</v>
+        <v>25.112885</v>
       </c>
       <c r="H7">
-        <v>96.83812499999999</v>
+        <v>75.33865499999999</v>
       </c>
       <c r="I7">
-        <v>0.4310459465194891</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="J7">
-        <v>0.4310459465194892</v>
+        <v>0.4760809326504767</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N7">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O7">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P7">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q7">
-        <v>9.981406817916666</v>
+        <v>8.486045647659997</v>
       </c>
       <c r="R7">
-        <v>89.83266136124999</v>
+        <v>76.37441082893997</v>
       </c>
       <c r="S7">
-        <v>0.02114188975631063</v>
+        <v>0.02777152539731851</v>
       </c>
       <c r="T7">
-        <v>0.02114188975631064</v>
+        <v>0.02777152539731852</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.143341</v>
       </c>
       <c r="I8">
-        <v>0.0006380395843068018</v>
+        <v>0.0009058021671219375</v>
       </c>
       <c r="J8">
-        <v>0.0006380395843068017</v>
+        <v>0.0009058021671219374</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N8">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O8">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P8">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q8">
-        <v>0.03057641909911111</v>
+        <v>0.04857030151111111</v>
       </c>
       <c r="R8">
-        <v>0.275187771892</v>
+        <v>0.4371327135999999</v>
       </c>
       <c r="S8">
-        <v>6.476474644594086E-05</v>
+        <v>0.0001589516976429637</v>
       </c>
       <c r="T8">
-        <v>6.476474644594084E-05</v>
+        <v>0.0001589516976429637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.143341</v>
       </c>
       <c r="I9">
-        <v>0.0006380395843068018</v>
+        <v>0.0009058021671219375</v>
       </c>
       <c r="J9">
-        <v>0.0006380395843068017</v>
+        <v>0.0009058021671219374</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O9">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P9">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q9">
         <v>0.1142649152211111</v>
@@ -1013,10 +1013,10 @@
         <v>1.02838423699</v>
       </c>
       <c r="S9">
-        <v>0.0002420276304420921</v>
+        <v>0.0003739446058672293</v>
       </c>
       <c r="T9">
-        <v>0.000242027630442092</v>
+        <v>0.0003739446058672293</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.143341</v>
       </c>
       <c r="I10">
-        <v>0.0006380395843068018</v>
+        <v>0.0009058021671219375</v>
       </c>
       <c r="J10">
-        <v>0.0006380395843068017</v>
+        <v>0.0009058021671219374</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N10">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O10">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P10">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q10">
-        <v>0.02014895063988889</v>
+        <v>0.02271043838311111</v>
       </c>
       <c r="R10">
-        <v>0.181340555759</v>
+        <v>0.204393945448</v>
       </c>
       <c r="S10">
-        <v>4.267804137280803E-05</v>
+        <v>7.432242796322008E-05</v>
       </c>
       <c r="T10">
-        <v>4.267804137280802E-05</v>
+        <v>7.432242796322008E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.143341</v>
       </c>
       <c r="I11">
-        <v>0.0006380395843068018</v>
+        <v>0.0009058021671219375</v>
       </c>
       <c r="J11">
-        <v>0.0006380395843068017</v>
+        <v>0.0009058021671219374</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N11">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O11">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P11">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q11">
-        <v>0.08097138783311111</v>
+        <v>0.017008126355</v>
       </c>
       <c r="R11">
-        <v>0.728742490498</v>
+        <v>0.153073137195</v>
       </c>
       <c r="S11">
-        <v>0.0001715077028931695</v>
+        <v>5.566097952335807E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001715077028931694</v>
+        <v>5.566097952335807E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.143341</v>
       </c>
       <c r="I12">
-        <v>0.0006380395843068018</v>
+        <v>0.0009058021671219375</v>
       </c>
       <c r="J12">
-        <v>0.0006380395843068017</v>
+        <v>0.0009058021671219374</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N12">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O12">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P12">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q12">
-        <v>0.04049188943311112</v>
+        <v>0.05808320661</v>
       </c>
       <c r="R12">
-        <v>0.364427004898</v>
+        <v>0.5227488594899999</v>
       </c>
       <c r="S12">
-        <v>8.576697433901769E-05</v>
+        <v>0.000190083734462601</v>
       </c>
       <c r="T12">
-        <v>8.576697433901768E-05</v>
+        <v>0.000190083734462601</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>0.143341</v>
       </c>
       <c r="I13">
-        <v>0.0006380395843068018</v>
+        <v>0.0009058021671219375</v>
       </c>
       <c r="J13">
-        <v>0.0006380395843068017</v>
+        <v>0.0009058021671219374</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N13">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O13">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P13">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q13">
-        <v>0.01477460281977778</v>
+        <v>0.01614573911866666</v>
       </c>
       <c r="R13">
-        <v>0.132971425378</v>
+        <v>0.145311652068</v>
       </c>
       <c r="S13">
-        <v>3.129448881377374E-05</v>
+        <v>5.28387216625653E-05</v>
       </c>
       <c r="T13">
-        <v>3.129448881377373E-05</v>
+        <v>5.283872166256531E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.456971666666667</v>
+        <v>1.993125666666667</v>
       </c>
       <c r="H14">
-        <v>4.370915</v>
+        <v>5.979377</v>
       </c>
       <c r="I14">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="J14">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N14">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O14">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P14">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q14">
-        <v>0.932370563108889</v>
+        <v>2.026078677688889</v>
       </c>
       <c r="R14">
-        <v>8.39133506798</v>
+        <v>18.2347080992</v>
       </c>
       <c r="S14">
-        <v>0.001974879495132304</v>
+        <v>0.006630567144064095</v>
       </c>
       <c r="T14">
-        <v>0.001974879495132304</v>
+        <v>0.006630567144064096</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.456971666666667</v>
+        <v>1.993125666666667</v>
       </c>
       <c r="H15">
-        <v>4.370915</v>
+        <v>5.979377</v>
       </c>
       <c r="I15">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="J15">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O15">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P15">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q15">
-        <v>3.48429431853889</v>
+        <v>4.76648695055889</v>
       </c>
       <c r="R15">
-        <v>31.35864886685</v>
+        <v>42.89838255503</v>
       </c>
       <c r="S15">
-        <v>0.007380178736814985</v>
+        <v>0.01559885710017773</v>
       </c>
       <c r="T15">
-        <v>0.007380178736814985</v>
+        <v>0.01559885710017773</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.456971666666667</v>
+        <v>1.993125666666667</v>
       </c>
       <c r="H16">
-        <v>4.370915</v>
+        <v>5.979377</v>
       </c>
       <c r="I16">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="J16">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N16">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O16">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P16">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q16">
-        <v>0.6144044661761111</v>
+        <v>0.9473512318728889</v>
       </c>
       <c r="R16">
-        <v>5.529640195585</v>
+        <v>8.526161086856</v>
       </c>
       <c r="S16">
-        <v>0.001301386841217985</v>
+        <v>0.003100311957830872</v>
       </c>
       <c r="T16">
-        <v>0.001301386841217985</v>
+        <v>0.003100311957830872</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.456971666666667</v>
+        <v>1.993125666666667</v>
       </c>
       <c r="H17">
-        <v>4.370915</v>
+        <v>5.979377</v>
       </c>
       <c r="I17">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="J17">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N17">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O17">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P17">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q17">
-        <v>2.469070633318889</v>
+        <v>0.7094829779350001</v>
       </c>
       <c r="R17">
-        <v>22.22163569987</v>
+        <v>6.385346801415</v>
       </c>
       <c r="S17">
-        <v>0.005229805786141424</v>
+        <v>0.00232186171967154</v>
       </c>
       <c r="T17">
-        <v>0.005229805786141424</v>
+        <v>0.00232186171967154</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.456971666666667</v>
+        <v>1.993125666666667</v>
       </c>
       <c r="H18">
-        <v>4.370915</v>
+        <v>5.979377</v>
       </c>
       <c r="I18">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="J18">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N18">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O18">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P18">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q18">
-        <v>1.234724237318889</v>
+        <v>2.42290335417</v>
       </c>
       <c r="R18">
-        <v>11.11251813587</v>
+        <v>21.80613018753</v>
       </c>
       <c r="S18">
-        <v>0.002615303051067228</v>
+        <v>0.007929219901631659</v>
       </c>
       <c r="T18">
-        <v>0.002615303051067228</v>
+        <v>0.007929219901631659</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.456971666666667</v>
+        <v>1.993125666666667</v>
       </c>
       <c r="H19">
-        <v>4.370915</v>
+        <v>5.979377</v>
       </c>
       <c r="I19">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="J19">
-        <v>0.01945582066289732</v>
+        <v>0.03778495088382995</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N19">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O19">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P19">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q19">
-        <v>0.4505238074522223</v>
+        <v>0.6735090527773333</v>
       </c>
       <c r="R19">
-        <v>4.05471426707</v>
+        <v>6.061581474995999</v>
       </c>
       <c r="S19">
-        <v>0.0009542667525233942</v>
+        <v>0.002204133060454055</v>
       </c>
       <c r="T19">
-        <v>0.0009542667525233942</v>
+        <v>0.002204133060454055</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4096263333333334</v>
+        <v>0.147857</v>
       </c>
       <c r="H20">
-        <v>1.228879</v>
+        <v>0.443571</v>
       </c>
       <c r="I20">
-        <v>0.005469987277355107</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="J20">
-        <v>0.005469987277355106</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N20">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O20">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P20">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q20">
-        <v>0.2621351834164445</v>
+        <v>0.1503015690666667</v>
       </c>
       <c r="R20">
-        <v>2.359216650748</v>
+        <v>1.3527141216</v>
       </c>
       <c r="S20">
-        <v>0.0005552356747039671</v>
+        <v>0.0004918785516717971</v>
       </c>
       <c r="T20">
-        <v>0.0005552356747039671</v>
+        <v>0.0004918785516717972</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4096263333333334</v>
+        <v>0.147857</v>
       </c>
       <c r="H21">
-        <v>1.228879</v>
+        <v>0.443571</v>
       </c>
       <c r="I21">
-        <v>0.005469987277355107</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="J21">
-        <v>0.005469987277355106</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O21">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P21">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q21">
-        <v>0.9796063565344447</v>
+        <v>0.3535945940766668</v>
       </c>
       <c r="R21">
-        <v>8.816457208810002</v>
+        <v>3.182351346690001</v>
       </c>
       <c r="S21">
-        <v>0.002074930916276904</v>
+        <v>0.001157177519126648</v>
       </c>
       <c r="T21">
-        <v>0.002074930916276903</v>
+        <v>0.001157177519126648</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4096263333333334</v>
+        <v>0.147857</v>
       </c>
       <c r="H22">
-        <v>1.228879</v>
+        <v>0.443571</v>
       </c>
       <c r="I22">
-        <v>0.005469987277355107</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="J22">
-        <v>0.005469987277355106</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N22">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O22">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P22">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q22">
-        <v>0.1727392882245556</v>
+        <v>0.07027781209866667</v>
       </c>
       <c r="R22">
-        <v>1.554653594021</v>
+        <v>0.632500308888</v>
       </c>
       <c r="S22">
-        <v>0.0003658837932215832</v>
+        <v>0.000229991933180831</v>
       </c>
       <c r="T22">
-        <v>0.0003658837932215832</v>
+        <v>0.000229991933180831</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4096263333333334</v>
+        <v>0.147857</v>
       </c>
       <c r="H23">
-        <v>1.228879</v>
+        <v>0.443571</v>
       </c>
       <c r="I23">
-        <v>0.005469987277355107</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="J23">
-        <v>0.005469987277355106</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N23">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O23">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P23">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q23">
-        <v>0.6941770889624445</v>
+        <v>0.05263191700500001</v>
       </c>
       <c r="R23">
-        <v>6.247593800662</v>
+        <v>0.4736872530450001</v>
       </c>
       <c r="S23">
-        <v>0.001470355407201395</v>
+        <v>0.00017224378473818</v>
       </c>
       <c r="T23">
-        <v>0.001470355407201395</v>
+        <v>0.00017224378473818</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4096263333333334</v>
+        <v>0.147857</v>
       </c>
       <c r="H24">
-        <v>1.228879</v>
+        <v>0.443571</v>
       </c>
       <c r="I24">
-        <v>0.005469987277355107</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="J24">
-        <v>0.005469987277355106</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N24">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O24">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P24">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q24">
-        <v>0.3471416593624445</v>
+        <v>0.17973940491</v>
       </c>
       <c r="R24">
-        <v>3.124274934262</v>
+        <v>1.61765464419</v>
       </c>
       <c r="S24">
-        <v>0.0007352902076778991</v>
+        <v>0.0005882171338229145</v>
       </c>
       <c r="T24">
-        <v>0.000735290207677899</v>
+        <v>0.0005882171338229146</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4096263333333334</v>
+        <v>0.147857</v>
       </c>
       <c r="H25">
-        <v>1.228879</v>
+        <v>0.443571</v>
       </c>
       <c r="I25">
-        <v>0.005469987277355107</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="J25">
-        <v>0.005469987277355106</v>
+        <v>0.002803019185525739</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N25">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O25">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P25">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q25">
-        <v>0.1266643817091111</v>
+        <v>0.04996324601199999</v>
       </c>
       <c r="R25">
-        <v>1.139979435382</v>
+        <v>0.449669214108</v>
       </c>
       <c r="S25">
-        <v>0.0002682912782733584</v>
+        <v>0.0001635102629853688</v>
       </c>
       <c r="T25">
-        <v>0.0002682912782733583</v>
+        <v>0.0001635102629853689</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.75974866666667</v>
+        <v>22.78687466666667</v>
       </c>
       <c r="H26">
-        <v>116.279246</v>
+        <v>68.360624</v>
       </c>
       <c r="I26">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="J26">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N26">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O26">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P26">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q26">
-        <v>24.80381020241689</v>
+        <v>23.16361766115556</v>
       </c>
       <c r="R26">
-        <v>223.234291821752</v>
+        <v>208.4725589504</v>
       </c>
       <c r="S26">
-        <v>0.05253762624870192</v>
+        <v>0.07580550740355048</v>
       </c>
       <c r="T26">
-        <v>0.05253762624870192</v>
+        <v>0.07580550740355048</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.75974866666667</v>
+        <v>22.78687466666667</v>
       </c>
       <c r="H27">
-        <v>116.279246</v>
+        <v>68.360624</v>
       </c>
       <c r="I27">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="J27">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O27">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P27">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q27">
-        <v>92.6925177455489</v>
+        <v>54.49397524659556</v>
       </c>
       <c r="R27">
-        <v>834.2326597099401</v>
+        <v>490.4457772193601</v>
       </c>
       <c r="S27">
-        <v>0.1963345475402928</v>
+        <v>0.178337576816946</v>
       </c>
       <c r="T27">
-        <v>0.1963345475402928</v>
+        <v>0.178337576816946</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.75974866666667</v>
+        <v>22.78687466666667</v>
       </c>
       <c r="H28">
-        <v>116.279246</v>
+        <v>68.360624</v>
       </c>
       <c r="I28">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="J28">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N28">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O28">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P28">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q28">
-        <v>16.34497309281711</v>
+        <v>10.83081420656355</v>
       </c>
       <c r="R28">
-        <v>147.104757835354</v>
+        <v>97.47732785907199</v>
       </c>
       <c r="S28">
-        <v>0.03462073287884779</v>
+        <v>0.03544504051709402</v>
       </c>
       <c r="T28">
-        <v>0.03462073287884779</v>
+        <v>0.03544504051709402</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.75974866666667</v>
+        <v>22.78687466666667</v>
       </c>
       <c r="H29">
-        <v>116.279246</v>
+        <v>68.360624</v>
       </c>
       <c r="I29">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="J29">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N29">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O29">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P29">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q29">
-        <v>65.68456983562089</v>
+        <v>8.11132984072</v>
       </c>
       <c r="R29">
-        <v>591.161128520588</v>
+        <v>73.00196856648</v>
       </c>
       <c r="S29">
-        <v>0.1391282771545459</v>
+        <v>0.02654522636697093</v>
       </c>
       <c r="T29">
-        <v>0.1391282771545459</v>
+        <v>0.02654522636697093</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.75974866666667</v>
+        <v>22.78687466666667</v>
       </c>
       <c r="H30">
-        <v>116.279246</v>
+        <v>68.360624</v>
       </c>
       <c r="I30">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="J30">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N30">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O30">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P30">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q30">
-        <v>32.8473107652209</v>
+        <v>27.70040845104</v>
       </c>
       <c r="R30">
-        <v>295.625796886988</v>
+        <v>249.30367605936</v>
       </c>
       <c r="S30">
-        <v>0.06957478396161827</v>
+        <v>0.09065265834697475</v>
       </c>
       <c r="T30">
-        <v>0.06957478396161827</v>
+        <v>0.09065265834697477</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.75974866666667</v>
+        <v>22.78687466666667</v>
       </c>
       <c r="H31">
-        <v>116.279246</v>
+        <v>68.360624</v>
       </c>
       <c r="I31">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="J31">
-        <v>0.5175822812827338</v>
+        <v>0.4319852754271836</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N31">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O31">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P31">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q31">
-        <v>11.98526364287422</v>
+        <v>7.700049539861332</v>
       </c>
       <c r="R31">
-        <v>107.867372785868</v>
+        <v>69.300445858752</v>
       </c>
       <c r="S31">
-        <v>0.02538631349872713</v>
+        <v>0.02519926597564745</v>
       </c>
       <c r="T31">
-        <v>0.02538631349872713</v>
+        <v>0.02519926597564746</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.932656333333333</v>
+        <v>2.660670333333333</v>
       </c>
       <c r="H32">
-        <v>5.797968999999999</v>
+        <v>7.982011</v>
       </c>
       <c r="I32">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="J32">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N32">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O32">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P32">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q32">
-        <v>1.236778940203111</v>
+        <v>2.704660082844444</v>
       </c>
       <c r="R32">
-        <v>11.131010461828</v>
+        <v>24.3419407456</v>
       </c>
       <c r="S32">
-        <v>0.002619655173233235</v>
+        <v>0.008851300040147694</v>
       </c>
       <c r="T32">
-        <v>0.002619655173233235</v>
+        <v>0.008851300040147694</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.932656333333333</v>
+        <v>2.660670333333333</v>
       </c>
       <c r="H33">
-        <v>5.797968999999999</v>
+        <v>7.982011</v>
       </c>
       <c r="I33">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="J33">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O33">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P33">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q33">
-        <v>4.621876757101111</v>
+        <v>6.362895544254446</v>
       </c>
       <c r="R33">
-        <v>41.59689081391</v>
+        <v>57.26605989829</v>
       </c>
       <c r="S33">
-        <v>0.00978972309699741</v>
+        <v>0.02082328124837199</v>
       </c>
       <c r="T33">
-        <v>0.00978972309699741</v>
+        <v>0.02082328124837199</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.932656333333333</v>
+        <v>2.660670333333333</v>
       </c>
       <c r="H34">
-        <v>5.797968999999999</v>
+        <v>7.982011</v>
       </c>
       <c r="I34">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="J34">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N34">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O34">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P34">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q34">
-        <v>0.8150005315478888</v>
+        <v>1.264641442356444</v>
       </c>
       <c r="R34">
-        <v>7.335004783930999</v>
+        <v>11.381772981208</v>
       </c>
       <c r="S34">
-        <v>0.001726274833161889</v>
+        <v>0.004138679355865595</v>
       </c>
       <c r="T34">
-        <v>0.001726274833161889</v>
+        <v>0.004138679355865596</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.932656333333333</v>
+        <v>2.660670333333333</v>
       </c>
       <c r="H35">
-        <v>5.797968999999999</v>
+        <v>7.982011</v>
       </c>
       <c r="I35">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="J35">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N35">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O35">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P35">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q35">
-        <v>3.275194093409111</v>
+        <v>0.9471055152050001</v>
       </c>
       <c r="R35">
-        <v>29.476746840682</v>
+        <v>8.523949636845</v>
       </c>
       <c r="S35">
-        <v>0.006937277852364688</v>
+        <v>0.00309950782278775</v>
       </c>
       <c r="T35">
-        <v>0.006937277852364688</v>
+        <v>0.00309950782278775</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.932656333333333</v>
+        <v>2.660670333333333</v>
       </c>
       <c r="H36">
-        <v>5.797968999999999</v>
+        <v>7.982011</v>
       </c>
       <c r="I36">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="J36">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N36">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O36">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P36">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q36">
-        <v>1.637847647809111</v>
+        <v>3.23439067731</v>
       </c>
       <c r="R36">
-        <v>14.740628830282</v>
+        <v>29.10951609579</v>
       </c>
       <c r="S36">
-        <v>0.00346916973121033</v>
+        <v>0.01058490215222135</v>
       </c>
       <c r="T36">
-        <v>0.00346916973121033</v>
+        <v>0.01058490215222135</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.932656333333333</v>
+        <v>2.660670333333333</v>
       </c>
       <c r="H37">
-        <v>5.797968999999999</v>
+        <v>7.982011</v>
       </c>
       <c r="I37">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="J37">
-        <v>0.02580792467321787</v>
+        <v>0.05044001968586199</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N37">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O37">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P37">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q37">
-        <v>0.5976147029557777</v>
+        <v>0.8990830763586666</v>
       </c>
       <c r="R37">
-        <v>5.378532326602</v>
+        <v>8.091747687227999</v>
       </c>
       <c r="S37">
-        <v>0.001265823986250319</v>
+        <v>0.002942349066467616</v>
       </c>
       <c r="T37">
-        <v>0.001265823986250319</v>
+        <v>0.002942349066467616</v>
       </c>
     </row>
   </sheetData>
